--- a/medicine/Enfance/Tirez_pas_sur_le_scarabée_!/Tirez_pas_sur_le_scarabée_!.xlsx
+++ b/medicine/Enfance/Tirez_pas_sur_le_scarabée_!/Tirez_pas_sur_le_scarabée_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tirez_pas_sur_le_scarab%C3%A9e_!</t>
+          <t>Tirez_pas_sur_le_scarabée_!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tirez pas sur le scarabée ! (Bug Muldoon and the Garden of Fear) est un roman de littérature jeunesse de Paul Shipton paru en 1995 aux États-Unis.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tirez_pas_sur_le_scarab%C3%A9e_!</t>
+          <t>Tirez_pas_sur_le_scarabée_!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bug Muldoon, le scarabée détective privé ;
 Velma la sauterelle, journaliste du Jardin ;
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tirez_pas_sur_le_scarab%C3%A9e_!</t>
+          <t>Tirez_pas_sur_le_scarabée_!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bug Muldoon est un scarabée et détective privé qui enquête sur la disparition de Eddie le perce-oreilles, sous la demande de Larry. En même temps, la reine des fourmis lui demande d'enquêter sur les activités d'une bande de fourmis dangereuses. Bug se rend rapidement compte que le problème est grave et menace l'entièreté du jardin. Seul l'aide de quelques amis pourra l'aider à découvrir le véritable plan des fourmis.
 </t>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tirez_pas_sur_le_scarab%C3%A9e_!</t>
+          <t>Tirez_pas_sur_le_scarabée_!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Série Bug Muldoon</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une suite intitulée Un privé chez les insectes (Bug Muldoon and the Killer in the Rain, 1998) est parue en français chez Hachette Jeunesse dans la collection Vertige Policier en 2000.
  Portail du polar   Portail de la littérature d’enfance et de jeunesse   Portail de la littérature américaine                   </t>
